--- a/Project_datafiles/child_elderly_perc.xlsx
+++ b/Project_datafiles/child_elderly_perc.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1941e0f4c67116f2/Documents/GitHub/EGM722_Project/Project_datafiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_35AD4D24ACC0B63B03E6048FF46470EE77938F9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BDADFEF-E55D-4894-A774-3B5D56BF40C1}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="child_elderly" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="child_elderly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>SA_CensusM</t>
   </si>
@@ -22,12 +32,6 @@
   </si>
   <si>
     <t>residents</t>
-  </si>
-  <si>
-    <t>Perc_child</t>
-  </si>
-  <si>
-    <t>Perc_eld</t>
   </si>
   <si>
     <t>N00002912</t>
@@ -159,29 +163,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS" numFmtId="166"/>
-    <numFmt formatCode="HH:MM:SS" numFmtId="167"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS.000" numFmtId="168"/>
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="169"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -190,35 +189,336 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="164">
-</xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" xfId="0"/>
-    <xf numFmtId="165" xfId="0"/>
-    <xf numFmtId="166" xfId="0"/>
-    <xf numFmtId="167" xfId="0"/>
-    <xf numFmtId="168" xfId="0"/>
-    <xf numFmtId="169" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="15"/>
-    <col min="2" max="1024" width="15"/>
-    <col min="3" max="1024" width="15"/>
-    <col min="4" max="1024" width="15"/>
-    <col min="5" max="1024" width="15"/>
-    <col min="6" max="1024" width="15"/>
+    <col min="1" max="1022" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -231,16 +531,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -251,16 +545,10 @@
       <c r="D2">
         <v>345</v>
       </c>
-      <c r="E2">
-        <v>11.0145</v>
-      </c>
-      <c r="F2">
-        <v>7.24638</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -271,16 +559,10 @@
       <c r="D3">
         <v>309</v>
       </c>
-      <c r="E3">
-        <v>10.0324</v>
-      </c>
-      <c r="F3">
-        <v>6.79612</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>33</v>
@@ -291,16 +573,10 @@
       <c r="D4">
         <v>468</v>
       </c>
-      <c r="E4">
-        <v>13.8889</v>
-      </c>
-      <c r="F4">
-        <v>7.05128</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -311,16 +587,10 @@
       <c r="D5">
         <v>386</v>
       </c>
-      <c r="E5">
-        <v>8.031090000000001</v>
-      </c>
-      <c r="F5">
-        <v>4.92228</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -331,16 +601,10 @@
       <c r="D6">
         <v>311</v>
       </c>
-      <c r="E6">
-        <v>13.8264</v>
-      </c>
-      <c r="F6">
-        <v>6.43087</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -351,16 +615,10 @@
       <c r="D7">
         <v>358</v>
       </c>
-      <c r="E7">
-        <v>14.2458</v>
-      </c>
-      <c r="F7">
-        <v>5.58659</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -371,16 +629,10 @@
       <c r="D8">
         <v>727</v>
       </c>
-      <c r="E8">
-        <v>13.8927</v>
-      </c>
-      <c r="F8">
-        <v>6.32737</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>34</v>
@@ -391,16 +643,10 @@
       <c r="D9">
         <v>393</v>
       </c>
-      <c r="E9">
-        <v>9.66921</v>
-      </c>
-      <c r="F9">
-        <v>8.651400000000001</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>24</v>
@@ -411,16 +657,10 @@
       <c r="D10">
         <v>396</v>
       </c>
-      <c r="E10">
-        <v>8.33333</v>
-      </c>
-      <c r="F10">
-        <v>6.06061</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -431,16 +671,10 @@
       <c r="D11">
         <v>326</v>
       </c>
-      <c r="E11">
-        <v>11.0429</v>
-      </c>
-      <c r="F11">
-        <v>5.52147</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>35</v>
@@ -451,16 +685,10 @@
       <c r="D12">
         <v>639</v>
       </c>
-      <c r="E12">
-        <v>10.0156</v>
-      </c>
-      <c r="F12">
-        <v>5.47731</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>22</v>
@@ -471,16 +699,10 @@
       <c r="D13">
         <v>438</v>
       </c>
-      <c r="E13">
-        <v>14.1553</v>
-      </c>
-      <c r="F13">
-        <v>5.02283</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -491,16 +713,10 @@
       <c r="D14">
         <v>277</v>
       </c>
-      <c r="E14">
-        <v>9.386279999999999</v>
-      </c>
-      <c r="F14">
-        <v>5.77617</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>38</v>
@@ -511,16 +727,10 @@
       <c r="D15">
         <v>218</v>
       </c>
-      <c r="E15">
-        <v>10.0917</v>
-      </c>
-      <c r="F15">
-        <v>17.4312</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>46</v>
@@ -531,16 +741,10 @@
       <c r="D16">
         <v>281</v>
       </c>
-      <c r="E16">
-        <v>9.60854</v>
-      </c>
-      <c r="F16">
-        <v>16.3701</v>
-      </c>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -551,16 +755,10 @@
       <c r="D17">
         <v>365</v>
       </c>
-      <c r="E17">
-        <v>10.6849</v>
-      </c>
-      <c r="F17">
-        <v>4.93151</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -571,16 +769,10 @@
       <c r="D18">
         <v>287</v>
       </c>
-      <c r="E18">
-        <v>12.892</v>
-      </c>
-      <c r="F18">
-        <v>3.83275</v>
-      </c>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -591,16 +783,10 @@
       <c r="D19">
         <v>408</v>
       </c>
-      <c r="E19">
-        <v>11.7647</v>
-      </c>
-      <c r="F19">
-        <v>3.92157</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -611,16 +797,10 @@
       <c r="D20">
         <v>320</v>
       </c>
-      <c r="E20">
-        <v>12.5</v>
-      </c>
-      <c r="F20">
-        <v>3.4375</v>
-      </c>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>88</v>
@@ -631,16 +811,10 @@
       <c r="D21">
         <v>1353</v>
       </c>
-      <c r="E21">
-        <v>13.6733</v>
-      </c>
-      <c r="F21">
-        <v>6.50407</v>
-      </c>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -651,16 +825,10 @@
       <c r="D22">
         <v>262</v>
       </c>
-      <c r="E22">
-        <v>5.72519</v>
-      </c>
-      <c r="F22">
-        <v>7.25191</v>
-      </c>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>37</v>
@@ -671,16 +839,10 @@
       <c r="D23">
         <v>482</v>
       </c>
-      <c r="E23">
-        <v>12.4481</v>
-      </c>
-      <c r="F23">
-        <v>7.67635</v>
-      </c>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>19</v>
@@ -691,16 +853,10 @@
       <c r="D24">
         <v>493</v>
       </c>
-      <c r="E24">
-        <v>16.43</v>
-      </c>
-      <c r="F24">
-        <v>3.85396</v>
-      </c>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -711,16 +867,10 @@
       <c r="D25">
         <v>408</v>
       </c>
-      <c r="E25">
-        <v>10.049</v>
-      </c>
-      <c r="F25">
-        <v>5.63725</v>
-      </c>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>18</v>
@@ -731,16 +881,10 @@
       <c r="D26">
         <v>303</v>
       </c>
-      <c r="E26">
-        <v>9.90099</v>
-      </c>
-      <c r="F26">
-        <v>5.94059</v>
-      </c>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>31</v>
@@ -751,16 +895,10 @@
       <c r="D27">
         <v>381</v>
       </c>
-      <c r="E27">
-        <v>10.4987</v>
-      </c>
-      <c r="F27">
-        <v>8.136480000000001</v>
-      </c>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>22</v>
@@ -771,16 +909,10 @@
       <c r="D28">
         <v>314</v>
       </c>
-      <c r="E28">
-        <v>10.1911</v>
-      </c>
-      <c r="F28">
-        <v>7.00637</v>
-      </c>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>45</v>
@@ -791,16 +923,10 @@
       <c r="D29">
         <v>432</v>
       </c>
-      <c r="E29">
-        <v>5.32407</v>
-      </c>
-      <c r="F29">
-        <v>10.4167</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>14</v>
@@ -811,16 +937,10 @@
       <c r="D30">
         <v>437</v>
       </c>
-      <c r="E30">
-        <v>18.0778</v>
-      </c>
-      <c r="F30">
-        <v>3.20366</v>
-      </c>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>13</v>
@@ -831,16 +951,10 @@
       <c r="D31">
         <v>254</v>
       </c>
-      <c r="E31">
-        <v>9.84252</v>
-      </c>
-      <c r="F31">
-        <v>5.11811</v>
-      </c>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -851,16 +965,10 @@
       <c r="D32">
         <v>203</v>
       </c>
-      <c r="E32">
-        <v>16.7488</v>
-      </c>
-      <c r="F32">
-        <v>5.41872</v>
-      </c>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>39</v>
@@ -871,16 +979,10 @@
       <c r="D33">
         <v>356</v>
       </c>
-      <c r="E33">
-        <v>11.5169</v>
-      </c>
-      <c r="F33">
-        <v>10.9551</v>
-      </c>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>25</v>
@@ -891,16 +993,10 @@
       <c r="D34">
         <v>785</v>
       </c>
-      <c r="E34">
-        <v>12.6115</v>
-      </c>
-      <c r="F34">
-        <v>3.18471</v>
-      </c>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>13</v>
@@ -911,16 +1007,10 @@
       <c r="D35">
         <v>336</v>
       </c>
-      <c r="E35">
-        <v>12.7976</v>
-      </c>
-      <c r="F35">
-        <v>3.86905</v>
-      </c>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>28</v>
@@ -931,16 +1021,10 @@
       <c r="D36">
         <v>231</v>
       </c>
-      <c r="E36">
-        <v>8.225110000000001</v>
-      </c>
-      <c r="F36">
-        <v>12.1212</v>
-      </c>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>31</v>
@@ -951,16 +1035,10 @@
       <c r="D37">
         <v>320</v>
       </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>9.6875</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -971,16 +1049,10 @@
       <c r="D38">
         <v>369</v>
       </c>
-      <c r="E38">
-        <v>15.1762</v>
-      </c>
-      <c r="F38">
-        <v>5.42005</v>
-      </c>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>17</v>
@@ -991,16 +1063,10 @@
       <c r="D39">
         <v>337</v>
       </c>
-      <c r="E39">
-        <v>9.19881</v>
-      </c>
-      <c r="F39">
-        <v>5.04451</v>
-      </c>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>13</v>
@@ -1011,16 +1077,10 @@
       <c r="D40">
         <v>276</v>
       </c>
-      <c r="E40">
-        <v>13.7681</v>
-      </c>
-      <c r="F40">
-        <v>4.71014</v>
-      </c>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -1031,16 +1091,10 @@
       <c r="D41">
         <v>322</v>
       </c>
-      <c r="E41">
-        <v>15.8385</v>
-      </c>
-      <c r="F41">
-        <v>4.96894</v>
-      </c>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>12</v>
@@ -1051,16 +1105,10 @@
       <c r="D42">
         <v>315</v>
       </c>
-      <c r="E42">
-        <v>12.0635</v>
-      </c>
-      <c r="F42">
-        <v>3.80952</v>
-      </c>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>47</v>
@@ -1071,13 +1119,8 @@
       <c r="D43">
         <v>274</v>
       </c>
-      <c r="E43">
-        <v>7.29927</v>
-      </c>
-      <c r="F43">
-        <v>17.1533</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>